--- a/biology/Zoologie/Chalcides_mionecton/Chalcides_mionecton.xlsx
+++ b/biology/Zoologie/Chalcides_mionecton/Chalcides_mionecton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides mionecton est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides mionecton est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des régions côtières de l'Ouest du Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des régions côtières de l'Ouest du Maroc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 août 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 août 2012) :
 Chalcides mionecton mionecton (Boettger, 1874)
 Chalcides mionecton trifasciatus Chabanaud, 1917</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique mionecton vient du grec meios, moins, et de nêktós, nageant, en référence au fait que ce saurien ne nage pas dans le sable aussi habilement que les autres scinques.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1874 "1873" : Reptilien von Marocco und von den canarischen Inseln. Abhandlungen der Senckenbergischen Naturforschenden Gesellschaft, vol. 9, p. 121-191 (texte intégral).
 Chabanaud, 1917 : Descriptions d’un lacertilien nouveau du Maroc. Bulletin du Muséum national d'histoire naturelle, vol. 23, p. 3-6 (texte intégral).</t>
